--- a/Costs/www/CostMeasTable.xlsx
+++ b/Costs/www/CostMeasTable.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
   <si>
     <t>VC</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Buyback fees*</t>
   </si>
   <si>
-    <t>Observers &amp; Catch monitors</t>
-  </si>
-  <si>
     <t>Repair &amp; maintenance†</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>† Included in the 'fishing gear' and 'equipment' categories for vessels</t>
+  </si>
+  <si>
+    <t>Observers &amp; Monitoring</t>
   </si>
 </sst>
 </file>
@@ -742,7 +742,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E33"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +876,9 @@
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="11"/>
     </row>
@@ -1068,7 +1070,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>33</v>
@@ -1126,9 +1128,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1182,14 +1184,14 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
